--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293048.5605018049</v>
+        <v>348856.3917816214</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484437</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8145533.030770466</v>
+        <v>8151846.162538925</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>210.4082694054152</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>43.25265002946732</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>42.12285874483718</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>318.3252443674957</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>275.4619073241118</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.646247653749</v>
+        <v>219.5141406214753</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>38.42236405208028</v>
+        <v>188.4787091072561</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
-        <v>232.0556482780828</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.043075354597</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345345</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930767001</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.043075354597</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>206.485501777224</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,25 +1765,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022954</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6767931660344</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659376</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>71.43430199953463</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>199.420139880479</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659376</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>206.8981232563561</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>31.24391673888175</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719961</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>48.28314334362904</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>144.4937753855481</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>181.1112426721137</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3269,7 +3269,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773007</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>31.24391673888096</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3503,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314619</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3563,7 +3563,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3670,13 +3670,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225785</v>
+        <v>54.49360828358995</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>85.5532963163074</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>31.24391673888096</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412246</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>572.6805045036037</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>538.5784357274312</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.490214300081</v>
+        <v>506.7090549422797</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>476.974714140979</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1301.16279524218</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1908.865441550741</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382374</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1976.074697699391</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.457747633218</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1208.602293044251</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1193.500233663966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>785.2141099636191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940198</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940198</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940198</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>526.7806337295201</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>484.2322915630179</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>484.2322915630179</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>314.4742878137552</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>786.4454139746548</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1245.929281155568</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1688.188084313212</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2107.857333538994</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1750.392590344265</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1191.410677800987</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>946.0189231343991</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>718.5992524485073</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>818.4741458746412</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.749580445395</v>
+        <v>786.6047650894898</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>756.870424288189</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>733.0433987378009</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>331.6455673610648</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.062614956869</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1292.062614956869</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523336</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>526.243086635757</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020149</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890072</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851252</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>473.4386690283488</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283488</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283488</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283488</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274412</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626534</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925626</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925626</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377063</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.971253637588</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1390.685129937242</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498054</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864476</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330009</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599546</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761162</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230005</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897012</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851825</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851825</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851825</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851825</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.733516244797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937321</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385704</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716274</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114677</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503477</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295685</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>950.2388210962215</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>777.6771095794464</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809691</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317065</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934627</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934627</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838372</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851252</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851252</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727659</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718582</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729503</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955284</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925626</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951630998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582928994</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507449</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1177.658491782113</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1177.658491782113</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1177.658491782113</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1177.658491782113</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>950.2388210962215</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984732</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168155</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342599</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500894</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101023</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333662</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245816</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179642</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590675</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469639</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>446.3722884888467</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>276.614284739584</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984732</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168155</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342599</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101023</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333662</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928799</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245816</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179642</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590675</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>833.4744220269588</v>
+        <v>784.8119928040995</v>
       </c>
       <c r="C16" t="n">
-        <v>833.4744220269588</v>
+        <v>612.2502812873245</v>
       </c>
       <c r="D16" t="n">
-        <v>667.5964292284815</v>
+        <v>446.3722884888471</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>276.6142847395844</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>99.90723070134055</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2581.398825810143</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2335.519379388598</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2057.086378641703</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1770.130870512134</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.104466098425</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1252.712711431838</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1025.293040745946</v>
+        <v>976.6306115230866</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939373</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172012</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,40 +5525,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1009.916144494519</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>837.3544329777443</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2511.961101856158</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2233.528101109263</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1946.572592979694</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1674.546188565986</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1429.154433899398</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1201.734763213506</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>516.9624360939373</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>115.5646047172012</v>
       </c>
       <c r="H20" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987277</v>
+        <v>947.2320137580466</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412715</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.7923094427942</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177149</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.187678435287</v>
+        <v>790.3368563937636</v>
       </c>
       <c r="C25" t="n">
-        <v>917.6259669185121</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>751.7479741200348</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>581.989970370772</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>405.2829163325282</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>239.6916413583559</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920462</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840166</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.006297154274</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
         <v>614.3171730324584</v>
@@ -6409,16 +6409,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309359</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>356.7918199602167</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771604</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004243</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436406</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7211,13 +7211,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
         <v>793.2056155771595</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7445,16 +7445,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7546,13 +7546,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7594,22 +7594,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
         <v>1144.575496066698</v>
@@ -7628,19 +7628,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,7 +7655,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7673,22 +7673,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7804,13 +7804,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>211.210279727793</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>379.7979693824673</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564004</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314063</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662773</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314065</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314063</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558115</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314065</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>185.1957776566189</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>185.1957776566189</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.14457787892923</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>26.97216184894887</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.0111327346222</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>185.1957776566186</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>44.00051207685024</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.0111327346222</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>49.7319563997972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>90.22000922290019</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>88.19489769745766</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627254</v>
+        <v>103.1553467313934</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.5921776627264</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>107.2592358276477</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>716527.3454501424</v>
+        <v>718471.1984804799</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>716527.3454501424</v>
+        <v>719021.6458616758</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>716889.9064065159</v>
+        <v>719021.6458616758</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682713.866831951</v>
+        <v>682713.8668319508</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682713.8668319511</v>
+        <v>682713.8668319508</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682713.866831951</v>
+        <v>682713.8668319507</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682713.866831951</v>
+        <v>682713.8668319507</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711525.172161702</v>
+        <v>711525.1721617018</v>
       </c>
     </row>
     <row r="10">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227862.6109534237</v>
+        <v>227862.6109534236</v>
       </c>
       <c r="C2" t="n">
         <v>227862.6109534236</v>
       </c>
       <c r="D2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="F2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="G2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="H2" t="n">
-        <v>214847.6566379625</v>
+        <v>214847.6566379624</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26350,7 +26350,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="P2" t="n">
         <v>223914.4732583747</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200177</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520283</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.61108850916</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104685</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>133864.3835971965</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414883</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,10 +26448,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049261</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049256</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="O4" t="n">
         <v>14245.20557049264</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846951</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149053.7177086195</v>
+        <v>-182663.1654058176</v>
       </c>
       <c r="C6" t="n">
-        <v>-6862.417048909636</v>
+        <v>14178.68879262386</v>
       </c>
       <c r="D6" t="n">
-        <v>-12265.22940853598</v>
+        <v>31519.23316653074</v>
       </c>
       <c r="E6" t="n">
-        <v>-96139.36353236163</v>
+        <v>-34151.70354524461</v>
       </c>
       <c r="F6" t="n">
-        <v>127659.9302196667</v>
+        <v>127583.3716648698</v>
       </c>
       <c r="G6" t="n">
-        <v>127659.9302196667</v>
+        <v>127583.3716648698</v>
       </c>
       <c r="H6" t="n">
-        <v>127659.9302196666</v>
+        <v>127583.3716648698</v>
       </c>
       <c r="I6" t="n">
-        <v>113586.3134492502</v>
+        <v>113563.0891098675</v>
       </c>
       <c r="J6" t="n">
-        <v>20936.56373709939</v>
+        <v>-28680.02474290617</v>
       </c>
       <c r="K6" t="n">
-        <v>131951.0290820896</v>
+        <v>118113.7961748618</v>
       </c>
       <c r="L6" t="n">
-        <v>123003.4179935805</v>
+        <v>131927.804742707</v>
       </c>
       <c r="M6" t="n">
-        <v>-54839.95752837893</v>
+        <v>-3062.139870296543</v>
       </c>
       <c r="N6" t="n">
-        <v>131951.0290820897</v>
+        <v>131927.8047427071</v>
       </c>
       <c r="O6" t="n">
-        <v>131951.0290820896</v>
+        <v>131927.8047427069</v>
       </c>
       <c r="P6" t="n">
-        <v>131951.0290820895</v>
+        <v>131927.8047427069</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825336</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825336</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825336</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>211.6283053746435</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>388.2980369478326</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>128.7132356567701</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>111.1117530257921</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>10.77694568710405</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.49922632528379</v>
+        <v>5.631333357557452</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>226.4723296792263</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>376.5286747344021</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
-        <v>43.59302246134288</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>211.210279727793</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>379.7979693824673</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564004</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314063</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662773</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314065</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314063</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558115</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314065</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,7 +35650,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36768,7 +36768,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
